--- a/GhostShell Menu/Traits.xlsx
+++ b/GhostShell Menu/Traits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skyler\.GitHub\PrettyBoySims\GhostShell Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB1A018-7D05-4382-B7B7-0F08CF9EA207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A4E9ED-C15C-46D8-ACE3-F37B636D27BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="14596" windowHeight="8476" activeTab="1" xr2:uid="{C91ABEC4-7EDA-4038-8786-2CC169CFE2BD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{C91ABEC4-7EDA-4038-8786-2CC169CFE2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9503" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10072" uniqueCount="1274">
   <si>
     <t>Trait</t>
   </si>
@@ -16492,15 +16492,6 @@
     <t>Skill</t>
   </si>
   <si>
-    <t>#Unknown</t>
-  </si>
-  <si>
-    <t>#Generic Child</t>
-  </si>
-  <si>
-    <t>#Generic Toddler</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">S_WW_NUDITY = </t>
     </r>
@@ -17521,13 +17512,187 @@
       </rPr>
       <t>140504</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KRITICAL_CERTIFIEDDOM = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15354059437099474587</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KRITICAL_HUMILIATIONSLUT = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>14185653986600082294</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KRITICAL_MASOCHIST = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13684666234489556334</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KRITICAL_CUMLOVER = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10190719869461745074</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KRITICAL_TRAIT_SUB_OWNED = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12967236809106674147</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KRITICAL_TRAIT_SUB_DEVOTED = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>9860031022131805491</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KRITICAL_TRAIT_SUB_SHARING = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10205296704829281144</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S_WW_ADULTFILM = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5255876730914093336</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S_KRIT_BUTTPLUG = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12503627023949270877</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S_KRIT_SUBMISSION = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16649350022740743409</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S_KRIT_MASTER = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10913272126822913979</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S_FITNESS = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>16659</t>
+    </r>
+  </si>
+  <si>
+    <t>IfChildAdd</t>
+  </si>
+  <si>
+    <t>IfToddlerAdd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17566,30 +17731,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A9955"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="5"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1E1E1E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -17604,19 +17757,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17953,16 +18100,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3772FFB-52EB-42EA-A7F0-DFC1296DBB8F}">
-  <dimension ref="A1:H1173"/>
+  <dimension ref="A1:H1180"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:H1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1181" sqref="A1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="104.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.19921875" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.86328125" customWidth="1"/>
     <col min="4" max="4" width="14.265625" customWidth="1"/>
@@ -48470,6 +48617,188 @@
         <v>1179</v>
       </c>
     </row>
+    <row r="1174" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1174" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1174" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1174" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E1174" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F1174" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G1174" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H1174" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1175" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1175" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1175" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E1175" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F1175" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G1175" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H1175" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1176" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1176" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1176" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E1176" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F1176" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G1176" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H1176" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1177" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1177" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1177" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E1177" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F1177" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G1177" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H1177" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1178" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1178" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1178" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D1178" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E1178" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F1178" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G1178" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H1178" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1179" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1179" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1179" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1179" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E1179" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F1179" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G1179" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H1179" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1180" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1180" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1180" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1180" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E1180" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F1180" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G1180" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H1180" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48477,10 +48806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47091772-5CAA-4B97-9B7E-07B56B4E4620}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48514,35 +48843,35 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B3" t="s">
         <v>1178</v>
@@ -48551,24 +48880,24 @@
         <v>1178</v>
       </c>
       <c r="D3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B4" t="s">
         <v>1178</v>
@@ -48577,24 +48906,24 @@
         <v>1178</v>
       </c>
       <c r="D4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B5" t="s">
         <v>1178</v>
@@ -48620,7 +48949,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B6" t="s">
         <v>1178</v>
@@ -48646,366 +48975,1900 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>1195</v>
+        <v>1191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>1196</v>
+        <v>1268</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>1197</v>
+        <v>1269</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>1198</v>
+        <v>1270</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>1199</v>
+        <v>1192</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>1200</v>
+        <v>1193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>1201</v>
+        <v>1194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>1202</v>
+        <v>1195</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>1203</v>
+        <v>1196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+      <c r="B23" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+      <c r="B24" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+      <c r="B25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+      <c r="B26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+      <c r="B28" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
+      <c r="B29" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
+      <c r="B30" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
+      <c r="B31" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
+      <c r="B32" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+      <c r="B33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
+      <c r="B34" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
+      <c r="B35" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
+      <c r="B36" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
+      <c r="B37" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
+      <c r="B38" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="B39" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
+      <c r="B40" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
+      <c r="B41" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
+      <c r="B42" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
+      <c r="B43" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
+      <c r="B44" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
+      <c r="B45" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
+      <c r="B46" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
+      <c r="B47" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
+      <c r="B48" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" s="3" t="s">
+      <c r="B49" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" s="3" t="s">
+      <c r="B50" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" s="3" t="s">
+      <c r="B51" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="s">
+      <c r="B52" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
+      <c r="B53" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
+      <c r="B54" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
+      <c r="B55" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+      <c r="B56" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="B57" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
+      <c r="B58" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
+      <c r="B59" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
+      <c r="B60" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
+      <c r="B61" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
+      <c r="B62" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
+      <c r="B63" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
+      <c r="B64" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
+      <c r="B65" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+      <c r="B66" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
+      <c r="B67" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
+      <c r="B68" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
+      <c r="B69" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" s="5" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
+      <c r="B70" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
+      <c r="B71" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
+      <c r="B72" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" s="5" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
+      <c r="B73" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
+      <c r="B74" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
+      <c r="B75" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
+      <c r="B76" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" s="5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
+      <c r="B77" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
+      <c r="B78" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>1262</v>
+      <c r="B79" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1273</v>
       </c>
     </row>
   </sheetData>

--- a/GhostShell Menu/Traits.xlsx
+++ b/GhostShell Menu/Traits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skyler\.GitHub\PrettyBoySims\GhostShell Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8954BA-1A03-442B-8157-27F6F5194CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B8E0B0-6B94-4B45-981C-B5F7737BEEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="14596" windowHeight="8476" xr2:uid="{C91ABEC4-7EDA-4038-8786-2CC169CFE2BD}"/>
+    <workbookView xWindow="4268" yWindow="3045" windowWidth="21599" windowHeight="11333" activeTab="1" xr2:uid="{C91ABEC4-7EDA-4038-8786-2CC169CFE2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -4069,61 +4069,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4364,6 +4309,61 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4381,34 +4381,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6366246-7E30-43D8-9F5C-3A16F464F1C6}" name="Table2" displayName="Table2" ref="A1:I1180" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:I1180" xr:uid="{F6366246-7E30-43D8-9F5C-3A16F464F1C6}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C38216E5-2C9C-40A6-A0CE-DC5264488827}" name="Trait" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A4B504C6-3BAA-4385-ABE4-300463C9C712}" name="Me" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{4FEA053F-4632-4875-A48C-36EB177BEE56}" name="My" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{B9E2DF82-126D-4F8F-8BD1-6EC09F0DABFB}" name="MyPlayed" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{6B91F3FC-7871-4680-903E-323C827E44FC}" name="Maid" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{352AA68C-83E0-4F72-A066-4B84946B1285}" name="Nanny" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{1C920CF9-0736-4582-8ADC-DEE92E3CD5B4}" name="Service" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{7C948067-EB35-42B1-9558-2CDBBA457CEC}" name="Slave" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{78FD4BD5-DAB0-492F-B21D-886DE7FFDEC0}" name="Hot" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{C38216E5-2C9C-40A6-A0CE-DC5264488827}" name="Trait" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A4B504C6-3BAA-4385-ABE4-300463C9C712}" name="Me" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{4FEA053F-4632-4875-A48C-36EB177BEE56}" name="My" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{B9E2DF82-126D-4F8F-8BD1-6EC09F0DABFB}" name="MyPlayed" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{6B91F3FC-7871-4680-903E-323C827E44FC}" name="Maid" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{352AA68C-83E0-4F72-A066-4B84946B1285}" name="Nanny" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1C920CF9-0736-4582-8ADC-DEE92E3CD5B4}" name="Service" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{7C948067-EB35-42B1-9558-2CDBBA457CEC}" name="Slave" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{78FD4BD5-DAB0-492F-B21D-886DE7FFDEC0}" name="Hot" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8E158FA-B3F2-41F5-9DEC-7D3D81E08E95}" name="Table1" displayName="Table1" ref="A1:L79" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:L79" xr:uid="{D8E158FA-B3F2-41F5-9DEC-7D3D81E08E95}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="IfToddlerAdd"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8E158FA-B3F2-41F5-9DEC-7D3D81E08E95}" name="Table1" displayName="Table1" ref="A1:L79" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:L79" xr:uid="{D8E158FA-B3F2-41F5-9DEC-7D3D81E08E95}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E3223379-F960-4155-A282-89AD61904B22}" name="Skill" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{71ED5ED3-DCCE-4C69-8216-D206F521DEAA}" name="Instance" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{11519DF0-821C-4B33-80C4-33BF97B4078B}" name="InstanceDecimal" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{92CEDCBD-9959-4E4E-A785-4487DA89A560}" name="TuningID" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E3223379-F960-4155-A282-89AD61904B22}" name="Skill" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{71ED5ED3-DCCE-4C69-8216-D206F521DEAA}" name="Instance" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{11519DF0-821C-4B33-80C4-33BF97B4078B}" name="InstanceDecimal" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{92CEDCBD-9959-4E4E-A785-4487DA89A560}" name="TuningID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{ACC85313-7EE2-4777-85A6-78CB6646648D}" name="Me"/>
     <tableColumn id="3" xr3:uid="{C71992C7-373A-4B80-B9A3-9DADE757B8B6}" name="My"/>
     <tableColumn id="12" xr3:uid="{BB9FF5FB-6F0E-4BED-968F-6CA93AB99900}" name="MyPlayed"/>
@@ -4741,9 +4735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3772FFB-52EB-42EA-A7F0-DFC1296DBB8F}">
   <dimension ref="A1:I1180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1126" sqref="A1126"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1182" sqref="A1182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38990,7 +38984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47091772-5CAA-4B97-9B7E-07B56B4E4620}">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
@@ -39041,7 +39035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>96</v>
       </c>
@@ -39079,7 +39073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -39117,7 +39111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -39155,7 +39149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -39187,7 +39181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -39219,7 +39213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -39251,7 +39245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -39283,7 +39277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -39315,7 +39309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -39347,7 +39341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -39379,7 +39373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -39411,7 +39405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -39443,7 +39437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -39475,7 +39469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -39507,7 +39501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -39539,7 +39533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -39571,7 +39565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -39603,7 +39597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -39635,7 +39629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -39667,7 +39661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -39699,7 +39693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -39731,7 +39725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -39763,7 +39757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -39795,7 +39789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -39827,7 +39821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -39859,7 +39853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -39891,7 +39885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -39923,7 +39917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -39955,7 +39949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -39987,7 +39981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -40019,7 +40013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -40051,7 +40045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
@@ -40083,7 +40077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>47</v>
       </c>
@@ -40115,7 +40109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -40147,7 +40141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
@@ -40179,7 +40173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -40211,7 +40205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -40243,7 +40237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
@@ -40275,7 +40269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
@@ -40307,7 +40301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
@@ -40339,7 +40333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
@@ -40371,7 +40365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
         <v>56</v>
       </c>
@@ -40403,7 +40397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
@@ -40435,7 +40429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -40467,7 +40461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -40499,7 +40493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
@@ -40531,7 +40525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
@@ -40563,7 +40557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
@@ -40595,7 +40589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>63</v>
       </c>
@@ -40627,7 +40621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
@@ -40659,7 +40653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -40691,7 +40685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
@@ -40723,7 +40717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
@@ -40755,7 +40749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
         <v>68</v>
       </c>
@@ -40787,7 +40781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A56" s="2" t="s">
         <v>69</v>
       </c>
@@ -40819,7 +40813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
         <v>70</v>
       </c>
@@ -40851,7 +40845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="2" t="s">
         <v>71</v>
       </c>
@@ -40883,7 +40877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A59" s="2" t="s">
         <v>72</v>
       </c>
@@ -40915,7 +40909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
         <v>73</v>
       </c>
@@ -40947,7 +40941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
@@ -40979,7 +40973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
         <v>75</v>
       </c>
@@ -41011,7 +41005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A63" s="2" t="s">
         <v>76</v>
       </c>
@@ -41043,7 +41037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
         <v>77</v>
       </c>
@@ -41075,7 +41069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A65" s="2" t="s">
         <v>78</v>
       </c>
@@ -41107,7 +41101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>79</v>
       </c>
@@ -41139,7 +41133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A67" s="2" t="s">
         <v>80</v>
       </c>
@@ -41171,7 +41165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
@@ -41203,7 +41197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A69" s="2" t="s">
         <v>82</v>
       </c>
@@ -41235,7 +41229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="2" t="s">
         <v>83</v>
       </c>
@@ -41267,7 +41261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
@@ -41299,7 +41293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>85</v>
       </c>
@@ -41331,7 +41325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>86</v>
       </c>
@@ -41363,7 +41357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>87</v>
       </c>
